--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H2">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I2">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J2">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>202.964853842984</v>
+        <v>298.3887018322187</v>
       </c>
       <c r="R2">
-        <v>202.964853842984</v>
+        <v>2685.498316489968</v>
       </c>
       <c r="S2">
-        <v>0.02797468481402877</v>
+        <v>0.03516972237810819</v>
       </c>
       <c r="T2">
-        <v>0.02797468481402877</v>
+        <v>0.03516972237810818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H3">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I3">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J3">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>113.4263058058549</v>
+        <v>159.3091805705867</v>
       </c>
       <c r="R3">
-        <v>113.4263058058549</v>
+        <v>1433.78262513528</v>
       </c>
       <c r="S3">
-        <v>0.01563356952920111</v>
+        <v>0.01877705026546843</v>
       </c>
       <c r="T3">
-        <v>0.01563356952920111</v>
+        <v>0.01877705026546843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H4">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I4">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J4">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>254.7027353450348</v>
+        <v>358.3732701062826</v>
       </c>
       <c r="R4">
-        <v>254.7027353450348</v>
+        <v>3225.359430956544</v>
       </c>
       <c r="S4">
-        <v>0.03510572696522372</v>
+        <v>0.04223983126700218</v>
       </c>
       <c r="T4">
-        <v>0.03510572696522372</v>
+        <v>0.04223983126700217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H5">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I5">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J5">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>142.5385074670854</v>
+        <v>220.255156139872</v>
       </c>
       <c r="R5">
-        <v>142.5385074670854</v>
+        <v>1982.296405258848</v>
       </c>
       <c r="S5">
-        <v>0.01964610987939102</v>
+        <v>0.02596047586996727</v>
       </c>
       <c r="T5">
-        <v>0.01964610987939102</v>
+        <v>0.02596047586996726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H6">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I6">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J6">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>18.08235147265556</v>
+        <v>27.27559380970667</v>
       </c>
       <c r="R6">
-        <v>18.08235147265556</v>
+        <v>245.48034428736</v>
       </c>
       <c r="S6">
-        <v>0.002492293978815458</v>
+        <v>0.003214850482257273</v>
       </c>
       <c r="T6">
-        <v>0.002492293978815458</v>
+        <v>0.003214850482257272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H7">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I7">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J7">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>501.7185202800853</v>
+        <v>531.3795869598098</v>
       </c>
       <c r="R7">
-        <v>501.7185202800853</v>
+        <v>4782.416282638288</v>
       </c>
       <c r="S7">
-        <v>0.0691519600780451</v>
+        <v>0.06263130083684827</v>
       </c>
       <c r="T7">
-        <v>0.0691519600780451</v>
+        <v>0.06263130083684827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H8">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I8">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J8">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>280.3839050566592</v>
+        <v>283.7025867624978</v>
       </c>
       <c r="R8">
-        <v>280.3839050566592</v>
+        <v>2553.32328086248</v>
       </c>
       <c r="S8">
-        <v>0.03864536752237189</v>
+        <v>0.03343873663151829</v>
       </c>
       <c r="T8">
-        <v>0.03864536752237189</v>
+        <v>0.03343873663151829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H9">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I9">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J9">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>629.6118617041951</v>
+        <v>638.2019127305671</v>
       </c>
       <c r="R9">
-        <v>629.6118617041951</v>
+        <v>5743.817214575103</v>
       </c>
       <c r="S9">
-        <v>0.08677952390700365</v>
+        <v>0.07522196368055691</v>
       </c>
       <c r="T9">
-        <v>0.08677952390700365</v>
+        <v>0.07522196368055689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H10">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I10">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J10">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>352.3477473821266</v>
+        <v>392.2370155998186</v>
       </c>
       <c r="R10">
-        <v>352.3477473821266</v>
+        <v>3530.133140398368</v>
       </c>
       <c r="S10">
-        <v>0.04856415774118889</v>
+        <v>0.04623119729519801</v>
       </c>
       <c r="T10">
-        <v>0.04856415774118889</v>
+        <v>0.04623119729519801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H11">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I11">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J11">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>44.6986286160833</v>
+        <v>48.57319893041777</v>
       </c>
       <c r="R11">
-        <v>44.6986286160833</v>
+        <v>437.1587903737599</v>
       </c>
       <c r="S11">
-        <v>0.006160820573012139</v>
+        <v>0.005725102562227642</v>
       </c>
       <c r="T11">
-        <v>0.006160820573012139</v>
+        <v>0.00572510256222764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H12">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I12">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J12">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>647.2131627513427</v>
+        <v>700.5843516574956</v>
       </c>
       <c r="R12">
-        <v>647.2131627513427</v>
+        <v>6305.259164917461</v>
       </c>
       <c r="S12">
-        <v>0.0892055146132158</v>
+        <v>0.08257469870322212</v>
       </c>
       <c r="T12">
-        <v>0.0892055146132158</v>
+        <v>0.08257469870322212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H13">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I13">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J13">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>361.6931539122528</v>
+        <v>374.0407002604556</v>
       </c>
       <c r="R13">
-        <v>361.6931539122528</v>
+        <v>3366.3663023441</v>
       </c>
       <c r="S13">
-        <v>0.04985223691937753</v>
+        <v>0.04408648016998409</v>
       </c>
       <c r="T13">
-        <v>0.04985223691937753</v>
+        <v>0.04408648016998409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H14">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I14">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J14">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>812.1946227774278</v>
+        <v>841.4216206817422</v>
       </c>
       <c r="R14">
-        <v>812.1946227774278</v>
+        <v>7572.79458613568</v>
       </c>
       <c r="S14">
-        <v>0.1119449409572392</v>
+        <v>0.09917454856904859</v>
       </c>
       <c r="T14">
-        <v>0.1119449409572392</v>
+        <v>0.09917454856904859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H15">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I15">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J15">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>454.5259757287637</v>
+        <v>517.1352494781734</v>
       </c>
       <c r="R15">
-        <v>454.5259757287637</v>
+        <v>4654.21724530356</v>
       </c>
       <c r="S15">
-        <v>0.06264740259236065</v>
+        <v>0.06095238541004727</v>
       </c>
       <c r="T15">
-        <v>0.06264740259236065</v>
+        <v>0.06095238541004729</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H16">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I16">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J16">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N16">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q16">
-        <v>57.66089874679727</v>
+        <v>64.04013988435555</v>
       </c>
       <c r="R16">
-        <v>57.66089874679727</v>
+        <v>576.3612589592</v>
       </c>
       <c r="S16">
-        <v>0.00794741275641324</v>
+        <v>0.00754812071287616</v>
       </c>
       <c r="T16">
-        <v>0.00794741275641324</v>
+        <v>0.007548120712876159</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H17">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I17">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J17">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N17">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q17">
-        <v>393.0152881673861</v>
+        <v>535.3523334508802</v>
       </c>
       <c r="R17">
-        <v>393.0152881673861</v>
+        <v>4818.171001057923</v>
       </c>
       <c r="S17">
-        <v>0.05416937270372326</v>
+        <v>0.06309955043983799</v>
       </c>
       <c r="T17">
-        <v>0.05416937270372326</v>
+        <v>0.06309955043983799</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H18">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I18">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J18">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N18">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q18">
-        <v>219.6354266169471</v>
+        <v>285.8236288268283</v>
       </c>
       <c r="R18">
-        <v>219.6354266169471</v>
+        <v>2572.412659441455</v>
       </c>
       <c r="S18">
-        <v>0.0302723930634665</v>
+        <v>0.03368873423563917</v>
       </c>
       <c r="T18">
-        <v>0.0302723930634665</v>
+        <v>0.03368873423563917</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H19">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I19">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J19">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N19">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q19">
-        <v>493.1990294540869</v>
+        <v>642.9732936259092</v>
       </c>
       <c r="R19">
-        <v>493.1990294540869</v>
+        <v>5786.759642633183</v>
       </c>
       <c r="S19">
-        <v>0.06797771702009336</v>
+        <v>0.07578434469705983</v>
       </c>
       <c r="T19">
-        <v>0.06797771702009336</v>
+        <v>0.07578434469705983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H20">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I20">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J20">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N20">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q20">
-        <v>276.0074541302765</v>
+        <v>395.1694922429419</v>
       </c>
       <c r="R20">
-        <v>276.0074541302765</v>
+        <v>3556.525430186477</v>
       </c>
       <c r="S20">
-        <v>0.03804216045005614</v>
+        <v>0.04657683501132348</v>
       </c>
       <c r="T20">
-        <v>0.03804216045005614</v>
+        <v>0.04657683501132348</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H21">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I21">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J21">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N21">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q21">
-        <v>35.01414378012198</v>
+        <v>48.93634612377333</v>
       </c>
       <c r="R21">
-        <v>35.01414378012198</v>
+        <v>440.4271151139599</v>
       </c>
       <c r="S21">
-        <v>0.004826006166761061</v>
+        <v>0.005767905074166868</v>
       </c>
       <c r="T21">
-        <v>0.004826006166761061</v>
+        <v>0.005767905074166867</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H22">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I22">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J22">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N22">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q22">
-        <v>267.5825101946127</v>
+        <v>314.5128578343933</v>
       </c>
       <c r="R22">
-        <v>267.5825101946127</v>
+        <v>2830.61572050954</v>
       </c>
       <c r="S22">
-        <v>0.03688094880817065</v>
+        <v>0.03707020348444932</v>
       </c>
       <c r="T22">
-        <v>0.03688094880817065</v>
+        <v>0.03707020348444932</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H23">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I23">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J23">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N23">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q23">
-        <v>149.5376911566779</v>
+        <v>167.9178378834333</v>
       </c>
       <c r="R23">
-        <v>149.5376911566779</v>
+        <v>1511.2605409509</v>
       </c>
       <c r="S23">
-        <v>0.02061080871253636</v>
+        <v>0.01979171364207083</v>
       </c>
       <c r="T23">
-        <v>0.02061080871253636</v>
+        <v>0.01979171364207083</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H24">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I24">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J24">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N24">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q24">
-        <v>335.79211369168</v>
+        <v>377.7388374978133</v>
       </c>
       <c r="R24">
-        <v>335.79211369168</v>
+        <v>3399.649537480319</v>
       </c>
       <c r="S24">
-        <v>0.04628229156772298</v>
+        <v>0.04452236282624882</v>
       </c>
       <c r="T24">
-        <v>0.04628229156772298</v>
+        <v>0.04452236282624882</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H25">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I25">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J25">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N25">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q25">
-        <v>187.9183065701732</v>
+        <v>232.15717681316</v>
       </c>
       <c r="R25">
-        <v>187.9183065701732</v>
+        <v>2089.41459131844</v>
       </c>
       <c r="S25">
-        <v>0.02590081631154461</v>
+        <v>0.02736331304258049</v>
       </c>
       <c r="T25">
-        <v>0.02590081631154461</v>
+        <v>0.0273633130425805</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H26">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I26">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J26">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N26">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q26">
-        <v>23.83920617614695</v>
+        <v>28.74949656453333</v>
       </c>
       <c r="R26">
-        <v>23.83920617614695</v>
+        <v>258.7454690808</v>
       </c>
       <c r="S26">
-        <v>0.003285762369036938</v>
+        <v>0.00338857271229241</v>
       </c>
       <c r="T26">
-        <v>0.003285762369036938</v>
+        <v>0.00338857271229241</v>
       </c>
     </row>
   </sheetData>
